--- a/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_chemical_specialty.xlsx
@@ -590,26 +590,23 @@
           <t>Chemical (Specialty)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.009300000000000001</v>
-      </c>
       <c r="G2">
-        <v>0.09774436090225563</v>
+        <v>-0.006050420168067226</v>
       </c>
       <c r="H2">
-        <v>0.09774436090225563</v>
+        <v>-0.006050420168067226</v>
       </c>
       <c r="I2">
-        <v>-0.001729323308270677</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="J2">
-        <v>-0.001729323308270677</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="K2">
-        <v>-0.143</v>
+        <v>-0.49</v>
       </c>
       <c r="L2">
-        <v>-0.01075187969924812</v>
+        <v>-0.04117647058823529</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.5724907063197027</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.01265486725663717</v>
+        <v>-0.04666666666666667</v>
       </c>
       <c r="X2">
-        <v>0.2160259266099445</v>
+        <v>0.09035107089292931</v>
       </c>
       <c r="Y2">
-        <v>-0.2286807938665817</v>
+        <v>-0.137017737559596</v>
       </c>
       <c r="Z2">
-        <v>1.287512100677638</v>
+        <v>0.8756438557763061</v>
       </c>
       <c r="AA2">
-        <v>-0.002226524685382381</v>
+        <v>-0.09786607799852834</v>
       </c>
       <c r="AB2">
-        <v>0.1116903249257882</v>
+        <v>0.09035107089292931</v>
       </c>
       <c r="AC2">
-        <v>-0.1139168496111706</v>
+        <v>-0.1882171488914576</v>
       </c>
       <c r="AD2">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.6325136612021858</v>
-      </c>
-      <c r="AI2">
-        <v>0.3060145406477198</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.5346020761245676</v>
-      </c>
-      <c r="AK2">
-        <v>0.2273730684326711</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.394</v>
+        <v>0.316</v>
       </c>
       <c r="AM2">
-        <v>0.394</v>
+        <v>0.308</v>
       </c>
       <c r="AN2">
-        <v>3.561538461538461</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-0.05837563451776649</v>
+        <v>-4.208860759493671</v>
       </c>
       <c r="AP2">
-        <v>2.376923076923077</v>
+        <v>-0</v>
       </c>
       <c r="AQ2">
-        <v>-0.05837563451776649</v>
+        <v>-4.318181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Air Liquide Côte d'Ivoire S.A (BRVM:SIVC)</t>
+          <t>Air Liquide Côte d'Ivoire Société Anonyme (BRVM:SIVC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,26 +709,23 @@
           <t>Chemical (Specialty)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.009300000000000001</v>
-      </c>
       <c r="G3">
-        <v>0.09774436090225563</v>
+        <v>-0.006050420168067226</v>
       </c>
       <c r="H3">
-        <v>0.09774436090225563</v>
+        <v>-0.006050420168067226</v>
       </c>
       <c r="I3">
-        <v>-0.001729323308270677</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="J3">
-        <v>-0.001729323308270677</v>
+        <v>-0.1117647058823529</v>
       </c>
       <c r="K3">
-        <v>-0.143</v>
+        <v>-0.49</v>
       </c>
       <c r="L3">
-        <v>-0.01075187969924812</v>
+        <v>-0.04117647058823529</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +749,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.5724907063197027</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.01265486725663717</v>
+        <v>-0.04666666666666667</v>
       </c>
       <c r="X3">
-        <v>0.2160259266099445</v>
+        <v>0.09035107089292931</v>
       </c>
       <c r="Y3">
-        <v>-0.2286807938665817</v>
+        <v>-0.137017737559596</v>
       </c>
       <c r="Z3">
-        <v>1.287512100677638</v>
+        <v>0.8756438557763061</v>
       </c>
       <c r="AA3">
-        <v>-0.002226524685382381</v>
+        <v>-0.09786607799852834</v>
       </c>
       <c r="AB3">
-        <v>0.1116903249257882</v>
+        <v>0.09035107089292931</v>
       </c>
       <c r="AC3">
-        <v>-0.1139168496111706</v>
+        <v>-0.1882171488914576</v>
       </c>
       <c r="AD3">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.6325136612021858</v>
-      </c>
-      <c r="AI3">
-        <v>0.3060145406477198</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.5346020761245676</v>
-      </c>
-      <c r="AK3">
-        <v>0.2273730684326711</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.394</v>
+        <v>0.316</v>
       </c>
       <c r="AM3">
-        <v>0.394</v>
+        <v>0.308</v>
       </c>
       <c r="AN3">
-        <v>3.561538461538461</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-0.05837563451776649</v>
+        <v>-4.208860759493671</v>
       </c>
       <c r="AP3">
-        <v>2.376923076923077</v>
+        <v>-0</v>
       </c>
       <c r="AQ3">
-        <v>-0.05837563451776649</v>
+        <v>-4.318181818181818</v>
       </c>
     </row>
   </sheetData>
